--- a/capacities.xlsx
+++ b/capacities.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MNZ\Documents\Visual Studio\Projects\changeFuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2994646D-727F-4EBA-8275-CDA027EFFF61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18175F9C-3D16-44B4-BF40-469A70A31632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1916EA8-54F7-437C-945C-18156988F82E}"/>
+    <workbookView xWindow="1155" yWindow="8295" windowWidth="38715" windowHeight="6435" xr2:uid="{D1916EA8-54F7-437C-945C-18156988F82E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="data" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -770,9 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7FAC90-D4F4-4BAF-8457-CFEB70494D4A}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="I99" s="1">
-        <f>G99/F99</f>
+        <f t="shared" ref="I99:I111" si="0">G99/F99</f>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>1200</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" ref="D100:D111" si="0">IF(A100=3, C100*0.82,C100)</f>
+        <f t="shared" ref="D100:D111" si="1">IF(A100=3, C100*0.82,C100)</f>
         <v>983.99999999999989</v>
       </c>
       <c r="F100" s="1">
@@ -2496,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="1">
-        <f>G100/F100</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>16000</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13120</v>
       </c>
       <c r="F101" s="1">
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="I101" s="1">
-        <f>G101/F101</f>
+        <f t="shared" si="0"/>
         <v>6.4285714285714288</v>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
         <v>18000</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14760</v>
       </c>
       <c r="F102" s="1">
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="I102" s="1">
-        <f>G102/F102</f>
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
         <v>9000</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7380</v>
       </c>
       <c r="F103" s="1">
@@ -2580,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="I103" s="1">
-        <f>G103/F103</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
         <v>15500</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12710</v>
       </c>
       <c r="F104" s="1">
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="I104" s="1">
-        <f>G104/F104</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
         <v>8000</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6560</v>
       </c>
       <c r="F105" s="1">
@@ -2636,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="1">
-        <f>G105/F105</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
         <v>20000</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16400</v>
       </c>
       <c r="F106" s="1">
@@ -2664,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="I106" s="1">
-        <f>G106/F106</f>
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>18000</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14760</v>
       </c>
       <c r="F107" s="1">
@@ -2692,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="1">
-        <f>G107/F107</f>
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
         <v>18000</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="F108" s="1">
@@ -2720,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="I108" s="1">
-        <f>G108/F108</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
         <v>36000</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36000</v>
       </c>
       <c r="F109" s="1">
@@ -2748,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="I109" s="1">
-        <f>G109/F109</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
         <v>20000</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="F110" s="1">
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="I110" s="1">
-        <f>G110/F110</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
         <v>25000</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="F111" s="1">
@@ -2804,7 +2804,7 @@
         <v>2</v>
       </c>
       <c r="I111" s="1">
-        <f>G111/F111</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2815,6 +2815,7 @@
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/capacities.xlsx
+++ b/capacities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MNZ\Documents\Visual Studio\Projects\changeFuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18175F9C-3D16-44B4-BF40-469A70A31632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54AE73-AC89-4BC3-9D9A-1FB92C4735B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="8295" windowWidth="38715" windowHeight="6435" xr2:uid="{D1916EA8-54F7-437C-945C-18156988F82E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1916EA8-54F7-437C-945C-18156988F82E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>[media]\classes\trucks\ank_mk38.xml</t>
   </si>
@@ -385,6 +385,19 @@
   </si>
   <si>
     <t>newWeight</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[media]\classes\trucks\trailers\semitrailer_heavy_oiltank.xml</t>
+  </si>
+  <si>
+    <t>[media]\classes\trucks\trailers\semitrailer_oiltank.xml</t>
+  </si>
+  <si>
+    <t>[media]\classes\trucks\trailers\scout_trailer_oiltank.xml</t>
+  </si>
+  <si>
+    <t>[media]\classes\trucks\trailers\trailer_oiltank.xml</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -768,11 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7FAC90-D4F4-4BAF-8457-CFEB70494D4A}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="A3:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -788,7 +801,7 @@
     <col min="9" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -811,8 +824,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -829,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -846,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -863,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -880,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -897,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -914,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -931,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -948,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -965,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -982,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -999,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1016,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1033,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2468,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" ref="I99:I111" si="0">G99/F99</f>
+        <f>G99/F99</f>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -2483,7 +2500,7 @@
         <v>1200</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" ref="D100:D111" si="1">IF(A100=3, C100*0.82,C100)</f>
+        <f>IF(A100=3, C100*0.82,C100)</f>
         <v>983.99999999999989</v>
       </c>
       <c r="F100" s="1">
@@ -2496,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I100:I115" si="0">G100/F100</f>
         <v>5</v>
       </c>
     </row>
@@ -2511,7 +2528,7 @@
         <v>16000</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(A101=3, C101*0.82,C101)</f>
         <v>13120</v>
       </c>
       <c r="F101" s="1">
@@ -2539,7 +2556,7 @@
         <v>18000</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(A102=3, C102*0.82,C102)</f>
         <v>14760</v>
       </c>
       <c r="F102" s="1">
@@ -2567,7 +2584,7 @@
         <v>9000</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(A103=3, C103*0.82,C103)</f>
         <v>7380</v>
       </c>
       <c r="F103" s="1">
@@ -2595,7 +2612,7 @@
         <v>15500</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(A104=3, C104*0.82,C104)</f>
         <v>12710</v>
       </c>
       <c r="F104" s="1">
@@ -2623,7 +2640,7 @@
         <v>8000</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(A105=3, C105*0.82,C105)</f>
         <v>6560</v>
       </c>
       <c r="F105" s="1">
@@ -2651,7 +2668,7 @@
         <v>20000</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(A106=3, C106*0.82,C106)</f>
         <v>16400</v>
       </c>
       <c r="F106" s="1">
@@ -2679,7 +2696,7 @@
         <v>18000</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(A107=3, C107*0.82,C107)</f>
         <v>14760</v>
       </c>
       <c r="F107" s="1">
@@ -2698,26 +2715,23 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C108" s="1">
-        <v>18000</v>
+        <v>900</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="1"/>
-        <v>18000</v>
+        <f>IF(A108=3, C108*0.82,C108)</f>
+        <v>738</v>
       </c>
       <c r="F108" s="1">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G108" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H108" s="1">
-        <v>2</v>
+        <v>900</v>
       </c>
       <c r="I108" s="1">
         <f t="shared" si="0"/>
@@ -2726,26 +2740,23 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C109" s="1">
-        <v>36000</v>
+        <v>42000</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="1"/>
-        <v>36000</v>
+        <f>IF(A109=3, C109*0.82,C109)</f>
+        <v>34440</v>
       </c>
       <c r="F109" s="1">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="G109" s="1">
-        <v>3700</v>
-      </c>
-      <c r="H109" s="1">
-        <v>2</v>
+        <v>5000</v>
       </c>
       <c r="I109" s="1">
         <f t="shared" si="0"/>
@@ -2754,26 +2765,23 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C110" s="1">
-        <v>20000</v>
+        <v>36000</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="1"/>
-        <v>20000</v>
+        <f>IF(A110=3, C110*0.82,C110)</f>
+        <v>29520</v>
       </c>
       <c r="F110" s="1">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="G110" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H110" s="1">
-        <v>2</v>
+        <v>3700</v>
       </c>
       <c r="I110" s="1">
         <f t="shared" si="0"/>
@@ -2782,36 +2790,145 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C111" s="1">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <f>IF(A111=3, C111*0.82,C111)</f>
+        <v>16400</v>
       </c>
       <c r="F111" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="G111" s="1">
-        <v>2500</v>
-      </c>
-      <c r="H111" s="1">
-        <v>2</v>
+        <v>3700</v>
       </c>
       <c r="I111" s="1">
         <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D112" s="1">
+        <f>IF(A112=3, C112*0.82,C112)</f>
+        <v>18000</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1800</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H112" s="1">
+        <v>2</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>5</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="1">
+        <v>36000</v>
+      </c>
+      <c r="D113" s="1">
+        <f>IF(A113=3, C113*0.82,C113)</f>
+        <v>36000</v>
+      </c>
+      <c r="F113" s="1">
+        <v>3700</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3700</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D114" s="1">
+        <f>IF(A114=3, C114*0.82,C114)</f>
+        <v>20000</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H114" s="1">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>5</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D115" s="1">
+        <f>IF(A115=3, C115*0.82,C115)</f>
+        <v>25000</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2500</v>
+      </c>
+      <c r="H115" s="1">
+        <v>2</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L263">
-    <sortCondition ref="A3:A263"/>
-    <sortCondition ref="B3:B263"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K115">
+    <sortCondition ref="A2:A115"/>
+    <sortCondition ref="B2:B115"/>
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/capacities.xlsx
+++ b/capacities.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MNZ\Documents\Visual Studio\Projects\changeFuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F54AE73-AC89-4BC3-9D9A-1FB92C4735B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E634D7-F4B4-440A-8DA8-EC1E3BF0E831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1916EA8-54F7-437C-945C-18156988F82E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D1916EA8-54F7-437C-945C-18156988F82E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
+    <sheet name="cmd" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="370">
   <si>
     <t>[media]\classes\trucks\ank_mk38.xml</t>
   </si>
@@ -399,6 +400,756 @@
   <si>
     <t>[media]\classes\trucks\trailers\trailer_oiltank.xml</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_1_1\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_1_2\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_10\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_11\classes\trucks\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_12_5\classes\trucks\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_12\classes\trucks\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_2_1\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_2_2\classes\trucks\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_3\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4_1\classes\trucks\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_5\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_6\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_7\classes\trucks\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_8\classes\trucks\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\trailers\</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\DLC_trial_6\classes\trucks\</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\addons\</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\trailers\</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>@echo off</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_1_1\classes\trucks\addons\frame_addon_tank_small.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_1_1\classes\trucks\addons\frame_addon_tank_small.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_1_1\classes\trucks\ford_f750.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_1_1\classes\trucks\ford_f750.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_1_1\classes\trucks\tuz_16_actaeon.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_1_1\classes\trucks\tuz_16_actaeon.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_1_2\classes\trucks\addons\frame_addon_tank_small_short.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_1_2\classes\trucks\addons\frame_addon_tank_small_short.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_1_2\classes\trucks\chevy_apache.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_1_2\classes\trucks\chevy_apache.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_1_2\classes\trucks\tuz_108_warthog.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_1_2\classes\trucks\tuz_108_warthog.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_10\classes\trucks\addons\frame_addon_maintainer_big_kenworth_963.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_10\classes\trucks\addons\frame_addon_maintainer_big_kenworth_963.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_10\classes\trucks\kenworth_963.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_10\classes\trucks\kenworth_963.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_10\classes\trucks\kenworth_w990.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_10\classes\trucks\kenworth_w990.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_10\classes\trucks\mack_defense_m917.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_10\classes\trucks\mack_defense_m917.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_11\classes\trucks\burlak_6x6.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_11\classes\trucks\burlak_6x6.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_11\classes\trucks\neo_falcon_2000.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_11\classes\trucks\neo_falcon_2000.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_12_5\classes\trucks\azov_670963n.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_12_5\classes\trucks\azov_670963n.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_12\classes\trucks\femm_37at.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_12\classes\trucks\femm_37at.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_12\classes\trucks\mtb_8106.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_12\classes\trucks\mtb_8106.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_2_1\classes\trucks\addons\cat_770g_tank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_2_1\classes\trucks\addons\cat_770g_tank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_2_1\classes\trucks\cat_770g.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_2_1\classes\trucks\cat_770g.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_2_1\classes\trucks\cat_th357.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_2_1\classes\trucks\cat_th357.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_2_1\classes\trucks\western_star_49x.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_2_1\classes\trucks\western_star_49x.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_2_2\classes\trucks\krs_58_bandit.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_2_2\classes\trucks\krs_58_bandit.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_3\classes\trucks\addons\frame_addon_tank_long.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_3\classes\trucks\addons\frame_addon_tank_long.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_3\classes\trucks\boar_45318.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_3\classes\trucks\boar_45318.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_3\classes\trucks\pacific_p512.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_3\classes\trucks\pacific_p512.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_3\classes\trucks\paystar_5600ts.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_3\classes\trucks\paystar_5600ts.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_4_1\classes\trucks\cat_ct681.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4_1\classes\trucks\cat_ct681.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_4_1\classes\trucks\international_hx_520.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4_1\classes\trucks\international_hx_520.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_4\classes\trucks\addons\frame_tank_zikz_605r.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4\classes\trucks\addons\frame_tank_zikz_605r.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_4\classes\trucks\addons\tatra_805_tank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4\classes\trucks\addons\tatra_805_tank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_4\classes\trucks\khan_317_sentinel.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4\classes\trucks\khan_317_sentinel.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_4\classes\trucks\tatra_805.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4\classes\trucks\tatra_805.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_4\classes\trucks\tatra_t813.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4\classes\trucks\tatra_t813.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_4\classes\trucks\zikz_605r.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_4\classes\trucks\zikz_605r.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_5\classes\trucks\addons\tatra_frame_addon_tank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_5\classes\trucks\addons\tatra_frame_addon_tank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_5\classes\trucks\jeep_cj7_renegade.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_5\classes\trucks\jeep_cj7_renegade.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_5\classes\trucks\jeep_wrangler.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_5\classes\trucks\jeep_wrangler.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_5\classes\trucks\tatra_force_t815_7.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_5\classes\trucks\tatra_force_t815_7.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_5\classes\trucks\tatra_phoenix.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_5\classes\trucks\tatra_phoenix.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_6\classes\trucks\addons\step_3364_crocodile_tank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_6\classes\trucks\addons\step_3364_crocodile_tank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_6\classes\trucks\ank_mk38_ht.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_6\classes\trucks\ank_mk38_ht.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_6\classes\trucks\aramatsu_forester.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_6\classes\trucks\aramatsu_forester.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_6\classes\trucks\land_rover_defender_110.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_6\classes\trucks\land_rover_defender_110.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_6\classes\trucks\land_rover_defender_90.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_6\classes\trucks\land_rover_defender_90.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_6\classes\trucks\step_3364_crocodile.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_6\classes\trucks\step_3364_crocodile.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_6\classes\trucks\tayga_6455b.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_6\classes\trucks\tayga_6455b.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_7\classes\trucks\azov_43_191_sprinter.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_7\classes\trucks\azov_43_191_sprinter.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_7\classes\trucks\gor_by4.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_7\classes\trucks\gor_by4.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_7\classes\trucks\western_star_57x.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_7\classes\trucks\western_star_57x.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_8\classes\trucks\kirovets_k700.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_8\classes\trucks\kirovets_k700.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_8\classes\trucks\kirovets_k7m.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_8\classes\trucks\kirovets_k7m.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_8\classes\trucks\rezvani_hercules_6x6.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_8\classes\trucks\rezvani_hercules_6x6.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_8\classes\trucks\step_39331_pike.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_8\classes\trucks\step_39331_pike.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_8\classes\trucks\western_star_nf1424.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_8\classes\trucks\western_star_nf1424.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_8\classes\trucks\western_star_nf1430.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_8\classes\trucks\western_star_nf1430.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_9\classes\trucks\addons\frame_addon_watertank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\addons\frame_addon_watertank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_9\classes\trucks\derry_special_15c177.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\derry_special_15c177.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_9\classes\trucks\trailers\semitrailer_watertank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\trailers\semitrailer_watertank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_9\classes\trucks\trailers\trailer_watertank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\trailers\trailer_watertank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_9\classes\trucks\zikz_566a.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\zikz_566a.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_9\classes\trucks\zikz_612h_mastodont.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\zikz_612h_mastodont.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_9\classes\trucks\zikz_612h_mastodont_tuning\frame_addon_tank_zikz_612h_mastodon.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\zikz_612h_mastodont_tuning\frame_addon_tank_zikz_612h_mastodon.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\dlc_9\classes\trucks\zikz_612h_mastodont_tuning\zikz_612h_mastodont_watertank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\dlc_9\classes\trucks\zikz_612h_mastodont_tuning\zikz_612h_mastodont_watertank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\_dlc\DLC_trial_6\classes\trucks\gmc_8000.xml</t>
+  </si>
+  <si>
+    <t>[temp]\_dlc\DLC_trial_6\classes\trucks\gmc_8000.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\addons\cat_745c_fuel_tank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\addons\cat_745c_fuel_tank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\addons\frame_addon_maintainer.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\addons\frame_addon_maintainer.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\addons\frame_addon_maintainer_big.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\addons\frame_addon_maintainer_big.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\addons\frame_addon_tank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\addons\frame_addon_tank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\ank_mk38.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\ank_mk38.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\azov_4220_antarctic.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\azov_4220_antarctic.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\azov_5319.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\azov_5319.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\azov_64131.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\azov_64131.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\azov_73210.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\azov_73210.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\cat_745c.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\cat_745c.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\cat_ct680.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\cat_ct680.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\chevrolet_ck1500.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\chevrolet_ck1500.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\chevrolet_kodiakc70.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\chevrolet_kodiakc70.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\dan_96320.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\dan_96320.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\derry_longhorn_3194.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\derry_longhorn_3194.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\derry_longhorn_4520.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\derry_longhorn_4520.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\don_71.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\don_71.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\ford_clt9000.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\ford_clt9000.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\freightliner_114sd.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\freightliner_114sd.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\freightliner_m916a1.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\freightliner_m916a1.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\gmc_9500.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\gmc_9500.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\hummer_h2.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\hummer_h2.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\international_fleetstar_f2070a.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\international_fleetstar_f2070a.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\international_loadstar_1700.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\international_loadstar_1700.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\international_paystar_5070.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\international_paystar_5070.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\international_scout_800.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\international_scout_800.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\international_transtar_4070a.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\international_transtar_4070a.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\khan_39_marshall.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\khan_39_marshall.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\khan_lo4f.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\khan_lo4f.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\kolob_74760.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\kolob_74760.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\kolob_74941.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\kolob_74941.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\navistar_5000mv.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\navistar_5000mv.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\pacific_p12w.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\pacific_p12w.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\pacific_p16.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\pacific_p16.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\royal_bm17.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\royal_bm17.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\step_310e.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\step_310e.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\tayga_6436.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\tayga_6436.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\trailers\scout_trailer_oiltank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\trailers\scout_trailer_oiltank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\trailers\semitrailer_heavy_oiltank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\trailers\semitrailer_heavy_oiltank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\trailers\semitrailer_oiltank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\trailers\semitrailer_oiltank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\trailers\trailer_addon_maintainer.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\trailers\trailer_addon_maintainer.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\trailers\trailer_oiltank.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\trailers\trailer_oiltank.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\tuz_166.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\tuz_166.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\tuz_420_tatarin.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\tuz_420_tatarin.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\voron_ae4380.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\voron_ae4380.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\voron_d53233.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\voron_d53233.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\voron_grad.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\voron_grad.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\ws_4964_white.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\ws_4964_white.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\ws_6900xd_twin.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\ws_6900xd_twin.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\yar_87.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\yar_87.xml</t>
+  </si>
+  <si>
+    <t>..\snowrunner_trainer\[media]modOrg\classes\trucks\zikz_5368.xml</t>
+  </si>
+  <si>
+    <t>[temp]\classes\trucks\zikz_5368.xml</t>
+  </si>
+  <si>
+    <t>pause</t>
   </si>
 </sst>
 </file>
@@ -783,9 +1534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7FAC90-D4F4-4BAF-8457-CFEB70494D4A}">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="A3:D115"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2472,7 +3223,7 @@
         <v>2000</v>
       </c>
       <c r="D99" s="1">
-        <f>IF(A99=3, C99*0.82,C99)</f>
+        <f t="shared" ref="D99:D115" si="0">IF(A99=3, C99*0.82,C99)</f>
         <v>1640</v>
       </c>
       <c r="F99" s="1">
@@ -2500,7 +3251,7 @@
         <v>1200</v>
       </c>
       <c r="D100" s="1">
-        <f>IF(A100=3, C100*0.82,C100)</f>
+        <f t="shared" si="0"/>
         <v>983.99999999999989</v>
       </c>
       <c r="F100" s="1">
@@ -2513,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" ref="I100:I115" si="0">G100/F100</f>
+        <f t="shared" ref="I100:I115" si="1">G100/F100</f>
         <v>5</v>
       </c>
     </row>
@@ -2528,7 +3279,7 @@
         <v>16000</v>
       </c>
       <c r="D101" s="1">
-        <f>IF(A101=3, C101*0.82,C101)</f>
+        <f t="shared" si="0"/>
         <v>13120</v>
       </c>
       <c r="F101" s="1">
@@ -2541,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4285714285714288</v>
       </c>
     </row>
@@ -2556,7 +3307,7 @@
         <v>18000</v>
       </c>
       <c r="D102" s="1">
-        <f>IF(A102=3, C102*0.82,C102)</f>
+        <f t="shared" si="0"/>
         <v>14760</v>
       </c>
       <c r="F102" s="1">
@@ -2569,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -2584,7 +3335,7 @@
         <v>9000</v>
       </c>
       <c r="D103" s="1">
-        <f>IF(A103=3, C103*0.82,C103)</f>
+        <f t="shared" si="0"/>
         <v>7380</v>
       </c>
       <c r="F103" s="1">
@@ -2597,7 +3348,7 @@
         <v>3</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -2612,7 +3363,7 @@
         <v>15500</v>
       </c>
       <c r="D104" s="1">
-        <f>IF(A104=3, C104*0.82,C104)</f>
+        <f t="shared" si="0"/>
         <v>12710</v>
       </c>
       <c r="F104" s="1">
@@ -2625,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -2640,7 +3391,7 @@
         <v>8000</v>
       </c>
       <c r="D105" s="1">
-        <f>IF(A105=3, C105*0.82,C105)</f>
+        <f t="shared" si="0"/>
         <v>6560</v>
       </c>
       <c r="F105" s="1">
@@ -2653,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -2668,7 +3419,7 @@
         <v>20000</v>
       </c>
       <c r="D106" s="1">
-        <f>IF(A106=3, C106*0.82,C106)</f>
+        <f t="shared" si="0"/>
         <v>16400</v>
       </c>
       <c r="F106" s="1">
@@ -2681,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -2696,7 +3447,7 @@
         <v>18000</v>
       </c>
       <c r="D107" s="1">
-        <f>IF(A107=3, C107*0.82,C107)</f>
+        <f t="shared" si="0"/>
         <v>14760</v>
       </c>
       <c r="F107" s="1">
@@ -2709,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
     </row>
@@ -2724,7 +3475,7 @@
         <v>900</v>
       </c>
       <c r="D108" s="1">
-        <f>IF(A108=3, C108*0.82,C108)</f>
+        <f t="shared" si="0"/>
         <v>738</v>
       </c>
       <c r="F108" s="1">
@@ -2734,7 +3485,7 @@
         <v>900</v>
       </c>
       <c r="I108" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2749,7 +3500,7 @@
         <v>42000</v>
       </c>
       <c r="D109" s="1">
-        <f>IF(A109=3, C109*0.82,C109)</f>
+        <f t="shared" si="0"/>
         <v>34440</v>
       </c>
       <c r="F109" s="1">
@@ -2759,7 +3510,7 @@
         <v>5000</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2774,7 +3525,7 @@
         <v>36000</v>
       </c>
       <c r="D110" s="1">
-        <f>IF(A110=3, C110*0.82,C110)</f>
+        <f t="shared" si="0"/>
         <v>29520</v>
       </c>
       <c r="F110" s="1">
@@ -2784,7 +3535,7 @@
         <v>3700</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2799,7 +3550,7 @@
         <v>20000</v>
       </c>
       <c r="D111" s="1">
-        <f>IF(A111=3, C111*0.82,C111)</f>
+        <f t="shared" si="0"/>
         <v>16400</v>
       </c>
       <c r="F111" s="1">
@@ -2809,7 +3560,7 @@
         <v>3700</v>
       </c>
       <c r="I111" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.85</v>
       </c>
     </row>
@@ -2824,7 +3575,7 @@
         <v>18000</v>
       </c>
       <c r="D112" s="1">
-        <f>IF(A112=3, C112*0.82,C112)</f>
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="F112" s="1">
@@ -2837,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="I112" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2852,7 +3603,7 @@
         <v>36000</v>
       </c>
       <c r="D113" s="1">
-        <f>IF(A113=3, C113*0.82,C113)</f>
+        <f t="shared" si="0"/>
         <v>36000</v>
       </c>
       <c r="F113" s="1">
@@ -2865,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="I113" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2880,7 +3631,7 @@
         <v>20000</v>
       </c>
       <c r="D114" s="1">
-        <f>IF(A114=3, C114*0.82,C114)</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="F114" s="1">
@@ -2893,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="I114" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2908,7 +3659,7 @@
         <v>25000</v>
       </c>
       <c r="D115" s="1">
-        <f>IF(A115=3, C115*0.82,C115)</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="F115" s="1">
@@ -2921,7 +3672,7 @@
         <v>2</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2933,6 +3684,1447 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D75B7D-0401-4F1C-8710-C7ED8A617B68}">
+  <dimension ref="B1:D138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="77.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B98" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D98" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B100" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D101" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D103" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D104" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D105" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B109" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D109" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B110" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D116" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B115">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/capacities.xlsx
+++ b/capacities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MNZ\Documents\Visual Studio\Projects\changeFuel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E634D7-F4B4-440A-8DA8-EC1E3BF0E831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FF8833-8B2C-4411-A7E9-87ED824BD0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D1916EA8-54F7-437C-945C-18156988F82E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1916EA8-54F7-437C-945C-18156988F82E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
@@ -1534,9 +1534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7FAC90-D4F4-4BAF-8457-CFEB70494D4A}">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3169,7 +3169,7 @@
         <v>102</v>
       </c>
       <c r="C96" s="1">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="F96" s="1">
         <v>1400</v>
@@ -3186,7 +3186,7 @@
         <v>103</v>
       </c>
       <c r="C97" s="1">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="F97" s="1">
         <v>2000</v>
@@ -3203,7 +3203,7 @@
         <v>104</v>
       </c>
       <c r="C98" s="1">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="F98" s="1">
         <v>2000</v>
@@ -3691,8 +3691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D75B7D-0401-4F1C-8710-C7ED8A617B68}">
   <dimension ref="B1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5125,6 +5125,7 @@
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
